--- a/example_data/EMA/label_corrected/corlentor-epar-product-information_en.xlsx
+++ b/example_data/EMA/label_corrected/corlentor-epar-product-information_en.xlsx
@@ -4632,7 +4632,7 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>populations - pediatric || populations - geriatric || renal || hepatic</t>
+          <t>populations - geriatric || populations - pediatric || hepatic || renal</t>
         </is>
       </c>
       <c r="I112" t="inlineStr"/>
